--- a/Mifos Automation Excels/Client/4021-ACTIVECLIENT-BeforeSubmitedDate-ENTITY.xlsx
+++ b/Mifos Automation Excels/Client/4021-ACTIVECLIENT-BeforeSubmitedDate-ENTITY.xlsx
@@ -141,10 +141,10 @@
     <t>Submitted on date cannot be after the activation date</t>
   </si>
   <si>
-    <t>verify</t>
-  </si>
-  <si>
     <t>Ext4021</t>
+  </si>
+  <si>
+    <t>verify1</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -628,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -718,7 +718,7 @@
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>40</v>
